--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.4438</v>
+        <v>16.3834</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.675200000000002</v>
+        <v>5.6021</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.72700000000001</v>
+        <v>-21.73280000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.462999999999997</v>
+        <v>5.833199999999994</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.171100000000004</v>
+        <v>6.133700000000005</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.538</v>
+        <v>16.46899999999999</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2811</v>
+        <v>-22.28870000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.70549999999999</v>
+        <v>-19.53909999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.011800000000003</v>
+        <v>3.991300000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.69029999999998</v>
+        <v>-22.06809999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>4.733300000000005</v>
+        <v>5.397200000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.159699999999999</v>
+        <v>4.9015</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.09300000000002</v>
+        <v>17.11500000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.286</v>
+        <v>-19.3099</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.59490000000001</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.840200000000005</v>
+        <v>8.575700000000007</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.5443</v>
+        <v>4.719899999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.0036</v>
+        <v>16.523</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.10540000000001</v>
+        <v>17.09310000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.74889999999999</v>
+        <v>16.60919999999998</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.66249999999999</v>
+        <v>16.4407</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.508799999999999</v>
+        <v>5.712299999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.19690000000001</v>
+        <v>17.28630000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.3371</v>
+        <v>5.3033</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.467899999999997</v>
+        <v>5.514599999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.54940000000001</v>
+        <v>16.57270000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.37520000000002</v>
+        <v>18.40970000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.67459999999999</v>
+        <v>-21.61</v>
       </c>
       <c r="B69" t="n">
-        <v>5.271299999999999</v>
+        <v>5.448199999999998</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>7.0575</v>
+        <v>7.389700000000005</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.72650000000001</v>
+        <v>17.65770000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.63459999999999</v>
+        <v>-19.65399999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.97539999999998</v>
+        <v>-19.98859999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.477000000000003</v>
+        <v>5.507100000000004</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.90760000000001</v>
+        <v>-21.8783</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.67479999999999</v>
+        <v>-21.62479999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.503200000000003</v>
+        <v>5.556100000000003</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.5696</v>
+        <v>16.53929999999999</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.01029999999998</v>
+        <v>-20.73579999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5537</v>
+        <v>16.50530000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.462300000000006</v>
+        <v>8.380300000000009</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
